--- a/outputEdited.xlsx
+++ b/outputEdited.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titi-\Documents\Drive\ICESI\9\TestPostgres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titi-\PDG-Contact-tracing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C10276-4289-4B12-B730-32A4BA58A236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B599FE-C9E2-4C94-AE59-205CB6070F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="47">
   <si>
     <t>Proximity</t>
   </si>
@@ -123,70 +123,10 @@
     <t>NAN</t>
   </si>
   <si>
-    <t>Test7_1 not performed</t>
-  </si>
-  <si>
-    <t>Test9_2 not performed</t>
-  </si>
-  <si>
-    <t>Test9_3 not performed</t>
-  </si>
-  <si>
-    <t>Analisis para</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8035C14D35F4 con</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 60AB67B94E5D</t>
   </si>
   <si>
-    <t>Test1 Average</t>
-  </si>
-  <si>
-    <t>Test2 Average</t>
-  </si>
-  <si>
-    <t>Test3 Average</t>
-  </si>
-  <si>
-    <t>Test4 Average</t>
-  </si>
-  <si>
-    <t>Test7_2 Average</t>
-  </si>
-  <si>
-    <t>Test7_3 Average</t>
-  </si>
-  <si>
-    <t>Test9_1 Average</t>
-  </si>
-  <si>
-    <t>Test9_2 Average</t>
-  </si>
-  <si>
-    <t>Test9_3 Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58E6BA7C10E8 con</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8875989F746A con</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34F64B76676D con</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2446C8A8C839 con</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60AB67B94E5D con</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8035C14D35F4</t>
-  </si>
-  <si>
-    <t>Test7_1 Average</t>
   </si>
   <si>
     <t xml:space="preserve"> 58E6BA7C10E8</t>
@@ -200,12 +140,78 @@
   <si>
     <t xml:space="preserve"> 2446C8A8C839</t>
   </si>
+  <si>
+    <t>60AB67B94E5D</t>
+  </si>
+  <si>
+    <t>8035C14D35F4</t>
+  </si>
+  <si>
+    <t>58E6BA7C10E8</t>
+  </si>
+  <si>
+    <t>8875989F746A</t>
+  </si>
+  <si>
+    <t>34F64B76676D</t>
+  </si>
+  <si>
+    <t>2446C8A8C839</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8875989F746A </t>
+  </si>
+  <si>
+    <t>Suspect</t>
+  </si>
+  <si>
+    <t>Infected</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 7_1</t>
+  </si>
+  <si>
+    <t>Test 7_2</t>
+  </si>
+  <si>
+    <t>Test 7_3</t>
+  </si>
+  <si>
+    <t>Test 9_1</t>
+  </si>
+  <si>
+    <t>Test 9_2</t>
+  </si>
+  <si>
+    <t>Test 9_3</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>IOD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +239,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -254,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -277,11 +289,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -305,6 +437,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,2690 +801,3512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904214C8-79A5-410C-B588-D7D11F12B488}">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:AL320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="30"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.68687675070027998</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.151479137537367</v>
+      </c>
+      <c r="F3" s="15">
+        <f>E3/D3</f>
+        <v>0.22053321412164847</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.25194354256854201</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1.0315483783379801E-2</v>
+      </c>
+      <c r="I3" s="15">
+        <f>H3/G3</f>
+        <v>4.0943632363879469E-2</v>
+      </c>
+      <c r="J3" s="15">
+        <v>9.9746546345810996E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1.6690144104694099E-3</v>
+      </c>
+      <c r="L3" s="15">
+        <f>K3/J3</f>
+        <v>1.6732553372656223E-2</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.73015873015873001</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.11942554799697599</v>
+      </c>
+      <c r="O3" s="15">
+        <f>N3/M3</f>
+        <v>0.1635610766045541</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15" t="e">
+        <f>Q3/P3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3.2407407407407399E-2</v>
+      </c>
+      <c r="U3" s="15">
+        <f>T3/S3</f>
+        <v>7.7777777777777876E-2</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0.102430555555555</v>
+      </c>
+      <c r="X3" s="15">
+        <f>W3/V3</f>
+        <v>0.22348484848484743</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>0.16828254847645399</v>
+      </c>
+      <c r="AA3" s="15">
+        <f>Z3/Y3</f>
+        <v>0.22050816696914663</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>0.18589743589743499</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>2.1737343852728401E-2</v>
+      </c>
+      <c r="AD3" s="15">
+        <f>AC3/AB3</f>
+        <v>0.1169319186560568</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>0.199206349206349</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>4.5239355001259703E-2</v>
+      </c>
+      <c r="AG3" s="26">
+        <f>AF3/AE3</f>
+        <v>0.22709795737684177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.22391387927720099</v>
+      </c>
+      <c r="E4" s="10">
+        <v>8.1957605361614505E-2</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F32" si="0">E4/D4</f>
+        <v>0.36602289070322702</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.37279749458058198</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.100882741667346</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I32" si="1">H4/G4</f>
+        <v>0.27061003127406935</v>
+      </c>
+      <c r="J4" s="15">
+        <v>9.0948114385614301E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>8.3832550301871903E-4</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4:L32" si="2">K4/J4</f>
+        <v>9.2176237922236785E-3</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.44642857142857101</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.13372732426303799</v>
+      </c>
+      <c r="O4" s="15">
+        <f t="shared" ref="O4:O32" si="3">N4/M4</f>
+        <v>0.2995492063492054</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="e">
+        <f t="shared" ref="R4:R32" si="4">Q4/P4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="T4" s="10">
+        <v>1.38888888888888E-2</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4:U32" si="5">T4/S4</f>
+        <v>4.1666666666666442E-2</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0.16828254847645399</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4:X32" si="6">W4/V4</f>
+        <v>0.22050816696914663</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0.57272727272727197</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0.18404958677685901</v>
+      </c>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4:AA32" si="7">Z4/Y4</f>
+        <v>0.3213564213564209</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0.202380952380952</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>1.7148526077097499E-2</v>
+      </c>
+      <c r="AD4" s="15">
+        <f t="shared" ref="AD4:AD32" si="8">AC4/AB4</f>
+        <v>8.4733893557423098E-2</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>0.12916666666666601</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>3.15972222222222E-3</v>
+      </c>
+      <c r="AG4" s="26">
+        <f t="shared" ref="AG4:AG32" si="9">AF4/AE4</f>
+        <v>2.4462365591397955E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.790686274509803</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8.1633025759323297E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10324325638500913</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.41304563492063401</v>
+      </c>
+      <c r="H5" s="10">
+        <v>9.2877847753684795E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.22486098363327603</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.36638144841269799</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.10954879795342599</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="2"/>
+        <v>0.29900203306699213</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.20294784580498801</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1.59604280109625E-2</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" si="3"/>
+        <v>7.8643002824966321E-2</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.41774891774891698</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.17153913907160601</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="5"/>
+        <v>0.41062736917659132</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="W5" s="10">
+        <v>4.4218750000000001E-2</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="6"/>
+        <v>0.32159090909090909</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0.122448979591836</v>
+      </c>
+      <c r="AA5" s="15">
+        <f t="shared" si="7"/>
+        <v>0.28571428571428437</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0.189393939393939</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>2.0718549127639999E-2</v>
+      </c>
+      <c r="AD5" s="15">
+        <f t="shared" si="8"/>
+        <v>0.10939393939393942</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>0.19488536155202801</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>4.6566134455611197E-2</v>
+      </c>
+      <c r="AG5" s="26">
+        <f t="shared" si="9"/>
+        <v>0.23894116050978803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.15365265326437999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.70358407900449E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.17595427228663674</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.37671130952380899</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4.2448442593183103E-2</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.11268162521279512</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.10029519092019</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1.1918940293788099E-3</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1883860217458091E-2</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.58935574229691801</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.14426523550596701</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24478464389558122</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.23611111111111099</v>
+      </c>
+      <c r="T6" s="10">
+        <v>3.5108024691358E-2</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="5"/>
+        <v>0.14869281045751631</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0.39803921568627398</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.130207612456747</v>
+      </c>
+      <c r="AA6" s="15">
+        <f t="shared" si="7"/>
+        <v>0.32712257316719734</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0.53125</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0.2197265625</v>
+      </c>
+      <c r="AD6" s="15">
+        <f t="shared" si="8"/>
+        <v>0.41360294117647056</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0.15185185185185099</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>1.6488340192043802E-2</v>
+      </c>
+      <c r="AG6" s="26">
+        <f t="shared" si="9"/>
+        <v>0.10858175248419151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.37518666909488202</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.12634302781447501</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.33674711342828595</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.19487751454463401</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1.1780965018798E-2</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>6.0453177711786411E-2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.12735153735153701</v>
+      </c>
+      <c r="K7" s="10">
+        <v>5.3838979963609902E-2</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.42275877530237072</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.34230358810190697</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.107247721017178</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.31331170558822585</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.28888888888888797</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.2469135802469099E-2</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="5"/>
+        <v>7.7777777777777904E-2</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0.13666666666666599</v>
+      </c>
+      <c r="X7" s="15">
+        <f t="shared" si="6"/>
+        <v>0.21578947368420959</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>1.70068027210884E-3</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="7"/>
+        <v>1.1904761904761953E-2</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0.15476190476190399</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>1.4172335600907E-4</v>
+      </c>
+      <c r="AD7" s="15">
+        <f t="shared" si="8"/>
+        <v>9.1575091575091846E-4</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>0.16984126984126899</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>5.4925673973293E-4</v>
+      </c>
+      <c r="AG7" s="26">
+        <f t="shared" si="9"/>
+        <v>3.2339415516985759E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.27604166666666602</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.78721788194444E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>6.4744496855345904E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.52441077441077399</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.124867502182317</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23811010046965123</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.313588086749851</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.157180434093808</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.5012321600698777</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.68098818474758305</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.17189539241177401</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.25242052103369345</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10909090909090907</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.221049783549783</v>
+      </c>
+      <c r="T8" s="10">
+        <v>2.3790637122617598E-3</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0762569743597902E-2</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0.34642857142857097</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0.14269132653061201</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" si="7"/>
+        <v>0.41189248895434449</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AG8" s="26">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.40604395604395599</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.129422372499295</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.31873980777904865</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.300366762866762</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.10245269247336</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.34109197534217994</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.52291666666666603</v>
+      </c>
+      <c r="K9" s="10">
+        <v>8.4092881944444406E-2</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.16081507304116879</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.266609977324263</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1.79629822450522E-2</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="3"/>
+        <v>6.7375506443274683E-2</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>9.9333333333333301E-2</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="4"/>
+        <v>0.25913043478260883</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.123589409722222</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="5"/>
+        <v>0.30422008547008494</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="X9" s="15">
+        <f t="shared" si="6"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0.146124708624708</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>4.7624196170961896E-3</v>
+      </c>
+      <c r="AA9" s="15">
+        <f t="shared" si="7"/>
+        <v>3.2591473830257615E-2</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.41084656084656002</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.122462557039276</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.29807370612264278</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.53693181818181801</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.16965130710514201</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.31596433915878308</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.38393939393939303</v>
+      </c>
+      <c r="N10" s="10">
+        <v>9.8534671389216802E-2</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="3"/>
+        <v>0.2566412119845432</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0.31493506493506401</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>2.4009107775341501E-2</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="4"/>
+        <v>7.6235105101084583E-2</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.454166666666666</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0.10630208333333301</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="5"/>
+        <v>0.23405963302752256</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0.15755208333333301</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="7"/>
+        <v>0.20439189189189155</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D11" s="15">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.12553385416666599</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.29393292682926692</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.74305555555555503</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.105854552469135</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.14245846313603225</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="K11" s="10">
+        <v>8.1136067708333301E-2</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10743534482758621</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0.31269841269841198</v>
+      </c>
+      <c r="N11" s="10">
+        <v>3.4829931972789101E-2</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.11138506163886895</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>6.4172335600907002E-2</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="4"/>
+        <v>0.12251082251082265</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.44196428571428498</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.12617586096938699</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.28548881673881549</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="6"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0.359027777777777</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0.138091724537037</v>
+      </c>
+      <c r="AA11" s="15">
+        <f t="shared" si="7"/>
+        <v>0.38462685364281179</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>6.2499999999999904E-4</v>
+      </c>
+      <c r="AG11" s="26">
+        <f t="shared" si="9"/>
+        <v>2.7777777777777735E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>0.68687675070027998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>0.25194354256854201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D12" s="15">
+        <v>0.10438322067957601</v>
+      </c>
+      <c r="E12" s="10">
+        <v>7.8885699619162496E-4</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>7.5573161189686835E-3</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.250379318394024</v>
+      </c>
+      <c r="H12" s="10">
+        <v>6.1020511883493403E-2</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24371226934752221</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.16810535767337201</v>
+      </c>
+      <c r="K12" s="10">
+        <v>4.8458284519276598E-2</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>0.28826139267631695</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0.33646616541353302</v>
+      </c>
+      <c r="N12" s="10">
+        <v>8.8095646384130699E-2</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="3"/>
+        <v>0.26182616690702593</v>
+      </c>
+      <c r="P12" s="15">
+        <v>6.1001498501498497E-2</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>3.8762124488897698E-4</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="4"/>
+        <v>6.3542905405750824E-3</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0.13913690476190399</v>
+      </c>
+      <c r="T12" s="10">
+        <v>9.4041197208049893E-3</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="5"/>
+        <v>6.7588967405144251E-2</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0.30119047619047601</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>0.16292091836734601</v>
+      </c>
+      <c r="AA12" s="15">
+        <f t="shared" si="7"/>
+        <v>0.54092320722755227</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <v>9.9746546345810996E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.57777777777777695</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.180246913580246</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.31196581196581086</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.22516490680339199</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.32595592281987E-2</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="1"/>
+        <v>5.8888214049166172E-2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.26267788583965002</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.128104926804401</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.48768828177108831</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.86607142857142805</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.107621173469387</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="3"/>
+        <v>0.12426362297496239</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>7.6E-3</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="4"/>
+        <v>4.4705882352941172E-2</v>
+      </c>
+      <c r="S13" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="T13" s="10">
+        <v>0.10546875</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="5"/>
+        <v>0.15340909090909091</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="6"/>
+        <v>0.36818181818181817</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AD13" s="15">
+        <f t="shared" si="8"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.69615384615384601</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.18468934911242599</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26529961750956227</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.23346098346098301</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.2762459725496601E-2</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="1"/>
+        <v>5.466634953857083E-2</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.57187499999999902</v>
+      </c>
+      <c r="K14" s="10">
+        <v>9.3323567708333305E-2</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.16318875227686727</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.423565323565323</v>
+      </c>
+      <c r="N14" s="10">
+        <v>8.5860776043926196E-2</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.20270964422016619</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.22380952380952299</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>1.34580498866213E-2</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="4"/>
+        <v>6.0131712259371986E-2</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.10546875</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="5"/>
+        <v>0.12980769230769232</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0.55833333333333302</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0.19631944444444399</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" si="7"/>
+        <v>0.35161691542288498</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>0.235897435897435</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>2.5276134122287901E-2</v>
+      </c>
+      <c r="AD14" s="15">
+        <f t="shared" si="8"/>
+        <v>0.10714882943143825</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>0.15256410256410199</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>2.0923734385272798E-3</v>
+      </c>
+      <c r="AG14" s="26">
+        <f t="shared" si="9"/>
+        <v>1.3714716655893145E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.53864084633315401</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.13354585415412101</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24793116798186848</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.487275224775224</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.16208370219593299</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.33263275856206487</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.34960317460317403</v>
+      </c>
+      <c r="N15" s="10">
+        <v>3.5371315192743703E-2</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.1011756121290741</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0.24320512820512799</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>5.6333990795529197E-3</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="4"/>
+        <v>2.3163159104118508E-2</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0.42045454545454503</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0.13985020661156999</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="5"/>
+        <v>0.33261670761670736</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0.229983660130718</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>2.91839877290785E-2</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" si="7"/>
+        <v>0.12689591822519444</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>0.24444444444444399</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>2.2777777777777699E-2</v>
+      </c>
+      <c r="AD15" s="15">
+        <f t="shared" si="8"/>
+        <v>9.3181818181818032E-2</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>0.10096153846153801</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>1.4459031886916399E-3</v>
+      </c>
+      <c r="AG15" s="26">
+        <f t="shared" si="9"/>
+        <v>1.4321326821326783E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.29833333333333301</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.12668055555555499</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.42462756052141382</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.29011266511266498</v>
+      </c>
+      <c r="H16" s="10">
+        <v>9.6171817692796702E-2</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.33149817039338308</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.58854166666666596</v>
+      </c>
+      <c r="K16" s="10">
+        <v>9.1552734375E-2</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15555862831858425</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.33719851576994397</v>
+      </c>
+      <c r="N16" s="10">
+        <v>8.1668399186289403E-2</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24219679318519965</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0.26238095238095199</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>9.5020408163265305E-3</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="4"/>
+        <v>3.6214674617578484E-2</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0.33402777777777698</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.14791811342592501</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="5"/>
+        <v>0.44283177408177238</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="W16" s="10">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>7.2222222222222202E-3</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" si="7"/>
+        <v>3.6111111111111101E-2</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>1.38888888888888E-2</v>
+      </c>
+      <c r="AD16" s="15">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666442E-2</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.1044921875</v>
+      </c>
+      <c r="AG16" s="26">
+        <f t="shared" si="9"/>
+        <v>0.21343085106382995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.26203703703703701</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.109572187928669</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41815534615887823</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.22300904977375499</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2.2472684151976102E-2</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.10077027894058503</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.18347069597069501</v>
+      </c>
+      <c r="K17" s="10">
+        <v>4.7204489098948803E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25728625952609113</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.40769230769230702</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0.145898375129144</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.35786393899601415</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.196190476190476</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>2.5470748299319699E-2</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="4"/>
+        <v>0.12982662968099859</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0.25534188034187999</v>
+      </c>
+      <c r="T17" s="10">
+        <v>2.9644011615165399E-2</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="5"/>
+        <v>0.11609537603261444</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0.30952380952380898</v>
+      </c>
+      <c r="W17" s="10">
+        <v>5.6689342403628098E-4</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="6"/>
+        <v>1.8315018315018341E-3</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0.49404761904761901</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>0.101296768707482</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" si="7"/>
+        <v>0.20503442340791539</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>0.43154761904761901</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>0.11227147108843499</v>
+      </c>
+      <c r="AD17" s="15">
+        <f t="shared" si="8"/>
+        <v>0.26016009852216665</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>0.47916666666666602</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>9.1579861111111105E-2</v>
+      </c>
+      <c r="AG17" s="26">
+        <f t="shared" si="9"/>
+        <v>0.19112318840579734</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
-        <v>0.73015873015873001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D18" s="15">
+        <v>0.34052631578947301</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2.9095844875346201E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>8.5443748474741718E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.30408163265306098</v>
+      </c>
+      <c r="H18" s="10">
+        <v>8.29052709519182E-2</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.27264149507677821</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.53899782135076202</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.13003156430812399</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.24124692003811224</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0.16490299823633101</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24735449735449677</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0.34456168831168799</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.144723465961797</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="5"/>
+        <v>0.42002193183730052</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0.148809523809523</v>
+      </c>
+      <c r="W18" s="10">
+        <v>4.2623299319727803E-2</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="6"/>
+        <v>0.28642857142857236</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>0.15925925925925899</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>1.3443072702331901E-3</v>
+      </c>
+      <c r="AG18" s="26">
+        <f t="shared" si="9"/>
+        <v>8.4409991386735338E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.48095238095238102</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.19192743764172299</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39905704856199825</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.24076479076478999</v>
+      </c>
+      <c r="H19" s="10">
+        <v>9.8279090638398001E-2</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40819544388618539</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.16649831649831601</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1.24173270301216E-2</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="2"/>
+        <v>7.4579294801741677E-2</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.438435374149659</v>
+      </c>
+      <c r="N19" s="10">
+        <v>3.2491785829978199E-2</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="3"/>
+        <v>7.4108495221207216E-2</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>4.8333333333333298E-2</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="4"/>
+        <v>0.18125000000000033</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0.441911764705882</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0.11379919982698899</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="5"/>
+        <v>0.25751566017421823</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="W19" s="10">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="X19" s="15">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666688</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AA19" s="15">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>0.17261904761904701</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>3.0470521541950098E-3</v>
+      </c>
+      <c r="AG19" s="26">
+        <f t="shared" si="9"/>
+        <v>1.7651888341543569E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.19385964912280701</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.9916897506925199E-2</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10273874732079062</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.29166666666666602</v>
+      </c>
+      <c r="H20" s="10">
+        <v>8.9742063492063498E-2</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.30768707482993268</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.162965939052895</v>
+      </c>
+      <c r="K20" s="10">
+        <v>7.84401480928156E-3</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="2"/>
+        <v>4.813284821888808E-2</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.33629148629148597</v>
+      </c>
+      <c r="N20" s="10">
+        <v>3.2217006178045099E-2</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="3"/>
+        <v>9.5800837937718403E-2</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.192892156862745</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>1.14520857362552E-2</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="4"/>
+        <v>5.9370406358222667E-2</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0.18712121212121199</v>
+      </c>
+      <c r="T20" s="10">
+        <v>3.2728994490358099E-2</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="5"/>
+        <v>0.17490798675009198</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0.12937062937062899</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>2.7507457577387599E-3</v>
+      </c>
+      <c r="AA20" s="15">
+        <f t="shared" si="7"/>
+        <v>2.1262521262521289E-2</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>7.9365079365079305E-2</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>31494079113.126701</v>
+      </c>
+      <c r="AG20" s="26">
+        <f t="shared" si="9"/>
+        <v>396825396825.39673</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.28888888888888797</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.14123456790123401</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48888888888888848</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.17301587301587301</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.11611489040060401</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.67112276103101398</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.18978232618583499</v>
+      </c>
+      <c r="K21" s="10">
+        <v>8.6303119119484194E-3</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="2"/>
+        <v>4.5474792544684124E-2</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0.49299719887955101</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0.124010388469113</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="3"/>
+        <v>0.2515437993379171</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0.44389610389610301</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>9.9343835385393806E-2</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="4"/>
+        <v>0.2237997461871076</v>
+      </c>
+      <c r="S21" s="15">
+        <v>0.46071428571428502</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0.115344387755102</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="5"/>
+        <v>0.25035991140642333</v>
+      </c>
+      <c r="V21" s="15">
+        <v>0.655555555555555</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0.122592592592592</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" si="6"/>
+        <v>0.18700564971751338</v>
+      </c>
+      <c r="Y21" s="15">
+        <v>0.30555555555555503</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>3.7808641975308602E-2</v>
+      </c>
+      <c r="AA21" s="15">
+        <f t="shared" si="7"/>
+        <v>0.12373737373737383</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>0.39141414141414099</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>0.18519793898581699</v>
+      </c>
+      <c r="AG21" s="26">
+        <f t="shared" si="9"/>
+        <v>0.47315086347344265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.31481481481481399</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.119100137174211</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37831808278867124</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.50595238095238004</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.18580782312925101</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36724369747899088</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0.22652998023889401</v>
+      </c>
+      <c r="K22" s="10">
+        <v>7.8440138911100896E-2</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.34626824594422112</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0.401257472686044</v>
+      </c>
+      <c r="N22" s="10">
+        <v>6.8537724116838797E-2</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.1708073463605369</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.102808441558441</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>1.2089032720526199E-3</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1758793866799587E-2</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0.107764255127338</v>
+      </c>
+      <c r="T22" s="10">
+        <v>5.6699776893030102E-4</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="5"/>
+        <v>5.2614641864347014E-3</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0.11011904761904701</v>
+      </c>
+      <c r="W22" s="10">
+        <v>1.25690901360544E-2</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="6"/>
+        <v>0.11414092664092708</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>9.7916666666666596E-2</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>1.25434027777777E-3</v>
+      </c>
+      <c r="AA22" s="15">
+        <f t="shared" si="7"/>
+        <v>1.2810283687943192E-2</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE22" s="15">
+        <v>8.4722222222222199E-2</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>8.1404320987654298E-4</v>
+      </c>
+      <c r="AG22" s="26">
+        <f t="shared" si="9"/>
+        <v>9.6083788706739521E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>0.41666666666666602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.23902600667306501</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.1357673971632904E-2</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.34037164032494716</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.54943181818181797</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.10565509498393</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.19229882851263377</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.28575388427362097</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.12472608466575801</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>0.43648080229183411</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0.53071690214547296</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0.175310566685314</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="3"/>
+        <v>0.33032783764113138</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0.655555555555555</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0.17827160493827099</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="4"/>
+        <v>0.2719397363465153</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0.14992042824074001</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45449561403508565</v>
+      </c>
+      <c r="V23" s="15">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="W23" s="10">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="X23" s="15">
+        <f t="shared" si="6"/>
+        <v>0.12698412698412706</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="AA23" s="15">
+        <f t="shared" si="7"/>
+        <v>0.18750000000000019</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AD23" s="15">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.24164756811815599</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4.2619159558167703E-2</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.17636908117911884</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.653373015873015</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.14015081727135201</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.21450352840802159</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="K24" s="10">
+        <v>9.9392361111111105E-2</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="2"/>
+        <v>0.13630952380952394</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0.27369614512471602</v>
+      </c>
+      <c r="N24" s="10">
+        <v>2.1868665833680401E-2</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="3"/>
+        <v>7.9901256277158869E-2</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0.40714285714285697</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>1.30612244897959E-2</v>
+      </c>
+      <c r="R24" s="15">
+        <f t="shared" si="4"/>
+        <v>3.2080200501253098E-2</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0.1044921875</v>
+      </c>
+      <c r="U24" s="15">
+        <f t="shared" si="5"/>
+        <v>0.21343085106382995</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0.115555555555555</v>
+      </c>
+      <c r="X24" s="15">
+        <f t="shared" si="6"/>
+        <v>0.21666666666666576</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AA24" s="15">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>0.1201171875</v>
+      </c>
+      <c r="AD24" s="15">
+        <f t="shared" si="8"/>
+        <v>0.29567307692307693</v>
+      </c>
+      <c r="AE24" s="15">
+        <v>0.21666666666666601</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>1.25E-3</v>
+      </c>
+      <c r="AG24" s="26">
+        <f t="shared" si="9"/>
+        <v>5.7692307692307869E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.165249669289006</v>
+      </c>
+      <c r="E25" s="10">
+        <v>5.6227744844488899E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.34025934869589303</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.32634154040404001</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.110443750308881</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.33842994726366049</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.49583333333333302</v>
+      </c>
+      <c r="K25" s="10">
+        <v>7.3940972222222207E-2</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14912464985994403</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0.18292620078334301</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1.97974907340796E-2</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="3"/>
+        <v>0.10822665451587037</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.18380952380952301</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>3.4884353741496499E-3</v>
+      </c>
+      <c r="R25" s="15">
+        <f t="shared" si="4"/>
+        <v>1.8978534418948954E-2</v>
+      </c>
+      <c r="S25" s="15">
+        <v>0.109027777777777</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1.05613425925925E-4</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="5"/>
+        <v>9.6868365180466929E-4</v>
+      </c>
+      <c r="V25" s="15">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0.112654320987654</v>
+      </c>
+      <c r="X25" s="15">
+        <f t="shared" si="6"/>
+        <v>0.21345029239766053</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>0.566239316239316</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0.18837661626123101</v>
+      </c>
+      <c r="AA25" s="15">
+        <f t="shared" si="7"/>
+        <v>0.3326802128688911</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>0.59166666666666601</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>0.166875</v>
+      </c>
+      <c r="AD25" s="15">
+        <f t="shared" si="8"/>
+        <v>0.28204225352112705</v>
+      </c>
+      <c r="AE25" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AG25" s="26">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.80193744164332403</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.104084335259158</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.12979109074377321</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.37767857142857097</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.107256855867346</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.28398978385680301</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.51267361111111098</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.14828893590856401</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.28924628202957298</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0.41921768707482898</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0.14782330279050299</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.35261704681872597</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0.264038706391647</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1.0080421577154599E-2</v>
+      </c>
+      <c r="R26" s="15">
+        <f t="shared" si="4"/>
+        <v>3.817781761967267E-2</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0.10546875</v>
+      </c>
+      <c r="U26" s="15">
+        <f t="shared" si="5"/>
+        <v>0.15340909090909091</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0.49074074074073998</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0.12980109739369</v>
+      </c>
+      <c r="X26" s="15">
+        <f t="shared" si="6"/>
+        <v>0.26450034940601025</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>0.36696428571428502</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>0.13434550382652999</v>
+      </c>
+      <c r="AA26" s="15">
+        <f t="shared" si="7"/>
+        <v>0.36609966979492425</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>0.10546875</v>
+      </c>
+      <c r="AD26" s="15">
+        <f t="shared" si="8"/>
+        <v>0.24107142857142858</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>0.154458041958041</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>5.3131189177954901E-3</v>
+      </c>
+      <c r="AG26" s="26">
+        <f t="shared" si="9"/>
+        <v>3.4398460905252282E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.30853655187565199</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.11404646221968801</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.369636795142676</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.17267148056621701</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1.3298229537198499E-2</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="1"/>
+        <v>7.7014626234694392E-2</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.17850531311009199</v>
+      </c>
+      <c r="K27" s="10">
+        <v>4.9647339064414597E-2</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="2"/>
+        <v>0.27812807473016182</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0.35865457294028702</v>
+      </c>
+      <c r="N27" s="10">
+        <v>8.6607432088481595E-2</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24147867787789509</v>
+      </c>
+      <c r="P27" s="15">
+        <v>9.9172113289760305E-2</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>5.90905966840863E-3</v>
+      </c>
+      <c r="R27" s="15">
+        <f t="shared" si="4"/>
+        <v>5.9583883739006201E-2</v>
+      </c>
+      <c r="S27" s="15">
+        <v>7.0766488413547199E-2</v>
+      </c>
+      <c r="T27" s="10">
+        <v>2.84382834319921E-4</v>
+      </c>
+      <c r="U27" s="15">
+        <f t="shared" si="5"/>
+        <v>4.0186088174679032E-3</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="X27" s="15">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>0.42524509803921501</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>0.136862925317185</v>
+      </c>
+      <c r="AA27" s="15">
+        <f t="shared" si="7"/>
+        <v>0.32184480420410128</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="AC27" s="10">
+        <v>1.0546875000000001E-3</v>
+      </c>
+      <c r="AD27" s="15">
+        <f t="shared" si="8"/>
+        <v>5.8189655172413797E-3</v>
+      </c>
+      <c r="AE27" s="15">
+        <v>0.24583333333333299</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>2.9687499999999901E-3</v>
+      </c>
+      <c r="AG27" s="26">
+        <f t="shared" si="9"/>
+        <v>1.2076271186440654E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>0.45833333333333298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>0.76315789473684204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0.18589743589743499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>0.199206349206349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.28251633986928099</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2.6510316544918599E-2</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="0"/>
+        <v>9.3836400957143934E-2</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.30320035866910799</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.114100227895266</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37631956768160402</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.216563899063899</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.101693261456639</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="2"/>
+        <v>0.46957624006683379</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0.55952380952380898</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0.152210884353741</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.27203647416413312</v>
+      </c>
+      <c r="P28" s="15">
+        <v>5.5833333333333297E-2</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>8.3055555555555498E-4</v>
+      </c>
+      <c r="R28" s="15">
+        <f t="shared" si="4"/>
+        <v>1.4875621890547263E-2</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0.13518170426065099</v>
+      </c>
+      <c r="T28" s="10">
+        <v>6.26338225733506E-3</v>
+      </c>
+      <c r="U28" s="15">
+        <f t="shared" si="5"/>
+        <v>4.6333061797018786E-2</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0.71666666666666601</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0.1075</v>
+      </c>
+      <c r="X28" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>0.17013888888888801</v>
+      </c>
+      <c r="AA28" s="15">
+        <f t="shared" si="7"/>
+        <v>0.24019607843137139</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="26" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.479337052546771</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.19043435599197001</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39728695075870124</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.26458355778208698</v>
+      </c>
+      <c r="H29" s="10">
+        <v>5.6191100153286502E-2</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.21237563144254762</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.11580895615822</v>
+      </c>
+      <c r="K29" s="10">
+        <v>3.03793344847028E-3</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="2"/>
+        <v>2.623228417947061E-2</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.55868838763575601</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.118131847999279</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.21144496755908335</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0.14190476190476101</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>3.2792743764172301E-2</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.2310898050495378</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0.230232411266894</v>
+      </c>
+      <c r="T29" s="10">
+        <v>6.49827438310209E-2</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="5"/>
+        <v>0.2822484613414854</v>
+      </c>
+      <c r="V29" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="W29" s="10">
+        <v>1.9097222222222199E-2</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="6"/>
+        <v>5.0925925925925868E-2</v>
+      </c>
+      <c r="Y29" s="15">
+        <v>0.12380952380952299</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>3.03854875283446E-3</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" si="7"/>
+        <v>2.4542124542124646E-2</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="26" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.31006035588078901</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.111971729773614</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.36112881782495443</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.30351562352336298</v>
+      </c>
+      <c r="H30" s="10">
+        <v>8.5131447988049197E-2</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="1"/>
+        <v>0.28048456616433864</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.125454406704406</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1.8064018535292E-3</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4398871279072883E-2</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0.30793650793650801</v>
+      </c>
+      <c r="N30" s="10">
+        <v>8.4610733182161696E-2</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="3"/>
+        <v>0.27476681394207142</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.34199134199134101</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0.114910234066078</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="4"/>
+        <v>0.33600334264891257</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0.19166666666666601</v>
+      </c>
+      <c r="T30" s="10">
+        <v>3.2121913580246901E-2</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.1675925925925931</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0.39365079365079297</v>
+      </c>
+      <c r="W30" s="10">
+        <v>2.89040060468631E-2</v>
+      </c>
+      <c r="X30" s="15">
+        <f t="shared" si="6"/>
+        <v>7.3425499231950742E-2</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0.142222222222222</v>
+      </c>
+      <c r="AA30" s="15">
+        <f t="shared" si="7"/>
+        <v>0.19393939393939374</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="26" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>0.22391387927720099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>0.37279749458058198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>9.0948114385614301E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>0.44642857142857101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>0.76315789473684204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>0.57272727272727197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>0.202380952380952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>0.12916666666666601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0.790686274509803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0.41304563492063401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0.36638144841269799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0.20294784580498801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.41774891774891698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.13750000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.42857142857142799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.189393939393939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.19488536155202801</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35">
-        <v>0.15365265326437999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>0.37671130952380899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37">
-        <v>0.10029519092019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38">
-        <v>0.58935574229691801</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40">
-        <v>0.23611111111111099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42">
-        <v>0.39803921568627398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43">
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44">
-        <v>0.15185185185185099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46">
-        <v>0.37518666909488202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47">
-        <v>0.19487751454463401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48">
-        <v>0.12735153735153701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49">
-        <v>0.34230358810190697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51">
-        <v>0.28888888888888797</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52">
-        <v>0.63333333333333297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53">
-        <v>0.14285714285714199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54">
-        <v>0.15476190476190399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55">
-        <v>0.16984126984126899</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57">
-        <v>0.27604166666666602</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58">
-        <v>0.52441077441077399</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59">
-        <v>0.313588086749851</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <v>0.68098818474758305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62">
-        <v>0.221049783549783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64">
-        <v>0.34642857142857097</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65">
-        <v>0.14285714285714199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D31" s="15">
+        <v>0.367413632119514</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2.2877037525249701E-2</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="0"/>
+        <v>6.2265075449917308E-2</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.71614583333333304</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.11130615234374901</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="1"/>
+        <v>0.15542386363636232</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.31467259811662002</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.11234227240723201</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.35701320381762991</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0.26938775510203999</v>
+      </c>
+      <c r="N31" s="10">
+        <v>7.6634735526863798E-3</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8447742733457102E-2</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0.36557692307692302</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0.11429748520709999</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="4"/>
+        <v>0.31264961761016308</v>
+      </c>
+      <c r="S31" s="15">
+        <v>0.11114253393665099</v>
+      </c>
+      <c r="T31" s="10">
+        <v>1.2673902589809499E-3</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="5"/>
+        <v>1.140328741922815E-2</v>
+      </c>
+      <c r="V31" s="15">
+        <v>0.33928571428571402</v>
+      </c>
+      <c r="W31" s="10">
+        <v>0.15089994331065701</v>
+      </c>
+      <c r="X31" s="15">
+        <f t="shared" si="6"/>
+        <v>0.44475772765246313</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>0.192550505050505</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>1.22827071217222E-2</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" si="7"/>
+        <v>6.3789534691173669E-2</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="26" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.17931171577365301</v>
+      </c>
+      <c r="E32" s="27">
+        <v>4.6751917582848398E-2</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.26072985460617543</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.17304257328928299</v>
+      </c>
+      <c r="H32" s="27">
+        <v>2.16175838140302E-2</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1249263889406633</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0.122049269154048</v>
+      </c>
+      <c r="K32" s="27">
+        <v>3.9188730279305101E-3</v>
+      </c>
+      <c r="L32" s="19">
+        <f t="shared" si="2"/>
+        <v>3.2108943012056808E-2</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0.63809523809523805</v>
+      </c>
+      <c r="N32" s="27">
+        <v>0.111247165532879</v>
+      </c>
+      <c r="O32" s="19">
+        <f t="shared" si="3"/>
+        <v>0.17434257285003427</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0.12866946778711399</v>
+      </c>
+      <c r="Q32" s="27">
+        <v>4.7317311238220701E-3</v>
+      </c>
+      <c r="R32" s="19">
+        <f t="shared" si="4"/>
+        <v>3.6774311771078483E-2</v>
+      </c>
+      <c r="S32" s="19">
+        <v>6.4099821746880503E-2</v>
+      </c>
+      <c r="T32" s="27">
+        <v>3.3349156872277297E-4</v>
+      </c>
+      <c r="U32" s="19">
+        <f t="shared" si="5"/>
+        <v>5.2026910470933212E-3</v>
+      </c>
+      <c r="V32" s="19">
+        <v>0.55833333333333302</v>
+      </c>
+      <c r="W32" s="27">
+        <v>6.8541666666666598E-2</v>
+      </c>
+      <c r="X32" s="19">
+        <f t="shared" si="6"/>
+        <v>0.1227611940298507</v>
+      </c>
+      <c r="Y32" s="19">
+        <v>0.12006512006512</v>
+      </c>
+      <c r="Z32" s="27">
+        <v>6.1257122714184202E-4</v>
+      </c>
+      <c r="AA32" s="19">
+        <f t="shared" si="7"/>
+        <v>5.1019915426695137E-3</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="28" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL45" s="20"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68">
-        <v>0.40604395604395599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69">
-        <v>0.300366762866762</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70">
-        <v>0.52291666666666603</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71">
-        <v>0.266609977324263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72">
-        <v>0.38333333333333303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75">
-        <v>0.146124708624708</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76">
-        <v>0.16666666666666599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77">
-        <v>0.2</v>
-      </c>
+      <c r="A68" s="5"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80">
-        <v>0.41084656084656002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81">
-        <v>0.53693181818181801</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82">
-        <v>0.38393939393939303</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83">
-        <v>0.31493506493506401</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84">
-        <v>0.454166666666666</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86">
-        <v>0.77083333333333304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88">
-        <v>0.125</v>
-      </c>
+      <c r="A79" s="5"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90">
-        <v>0.42708333333333298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91">
-        <v>0.74305555555555503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92">
-        <v>0.75520833333333304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93">
-        <v>0.31269841269841198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94">
-        <v>0.52380952380952295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95">
-        <v>0.44196428571428498</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97">
-        <v>0.359027777777777</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B98">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99">
-        <v>0.22500000000000001</v>
-      </c>
+      <c r="A90" s="5"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101">
-        <v>0.10438322067957601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102">
-        <v>0.250379318394024</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103">
-        <v>0.16810535767337201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104">
-        <v>0.33646616541353302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105">
-        <v>6.1001498501498497E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106">
-        <v>0.13913690476190399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108">
-        <v>0.30119047619047601</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110">
-        <v>0.125</v>
-      </c>
+      <c r="A101" s="5"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112">
-        <v>0.57777777777777695</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113">
-        <v>0.22516490680339199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114">
-        <v>0.26267788583965002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115">
-        <v>0.86607142857142805</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
+      <c r="A112" s="5"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123">
-        <v>0.69615384615384601</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124">
-        <v>0.23346098346098301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>28</v>
-      </c>
-      <c r="B125">
-        <v>0.57187499999999902</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126">
-        <v>0.423565323565323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>41</v>
-      </c>
-      <c r="B127">
-        <v>0.22380952380952299</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>30</v>
-      </c>
-      <c r="B128">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>31</v>
-      </c>
-      <c r="B129">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130">
-        <v>0.55833333333333302</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>33</v>
-      </c>
-      <c r="B131">
-        <v>0.235897435897435</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132">
-        <v>0.15256410256410199</v>
-      </c>
+      <c r="A123" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135">
-        <v>0.53864084633315401</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136">
-        <v>0.487275224775224</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137">
-        <v>0.34960317460317403</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138">
-        <v>0.24320512820512799</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>30</v>
-      </c>
-      <c r="B139">
-        <v>0.42045454545454503</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>31</v>
-      </c>
-      <c r="B140">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>32</v>
-      </c>
-      <c r="B141">
-        <v>0.229983660130718</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>33</v>
-      </c>
-      <c r="B142">
-        <v>0.24444444444444399</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143">
-        <v>0.10096153846153801</v>
-      </c>
+      <c r="A134" s="5"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>26</v>
-      </c>
-      <c r="B145">
-        <v>0.29833333333333301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146">
-        <v>0.29011266511266498</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>28</v>
-      </c>
-      <c r="B147">
-        <v>0.58854166666666596</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>29</v>
-      </c>
-      <c r="B148">
-        <v>0.33719851576994397</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>41</v>
-      </c>
-      <c r="B149">
-        <v>0.26238095238095199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>30</v>
-      </c>
-      <c r="B150">
-        <v>0.33402777777777698</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>31</v>
-      </c>
-      <c r="B151">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>33</v>
-      </c>
-      <c r="B153">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>34</v>
-      </c>
-      <c r="B154">
-        <v>0.48958333333333298</v>
-      </c>
+      <c r="A145" s="5"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>26</v>
-      </c>
-      <c r="B156">
-        <v>0.26203703703703701</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157">
-        <v>0.22300904977375499</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>28</v>
-      </c>
-      <c r="B158">
-        <v>0.18347069597069501</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>29</v>
-      </c>
-      <c r="B159">
-        <v>0.40769230769230702</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>41</v>
-      </c>
-      <c r="B160">
-        <v>0.196190476190476</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>30</v>
-      </c>
-      <c r="B161">
-        <v>0.25534188034187999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>31</v>
-      </c>
-      <c r="B162">
-        <v>0.30952380952380898</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163">
-        <v>0.49404761904761901</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>33</v>
-      </c>
-      <c r="B164">
-        <v>0.43154761904761901</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>34</v>
-      </c>
-      <c r="B165">
-        <v>0.47916666666666602</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>26</v>
-      </c>
-      <c r="B167">
-        <v>0.34052631578947301</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>27</v>
-      </c>
-      <c r="B168">
-        <v>0.30408163265306098</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>28</v>
-      </c>
-      <c r="B169">
-        <v>0.53899782135076202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>29</v>
-      </c>
-      <c r="B170">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>41</v>
-      </c>
-      <c r="B171">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>30</v>
-      </c>
-      <c r="B172">
-        <v>0.34456168831168799</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>31</v>
-      </c>
-      <c r="B173">
-        <v>0.148809523809523</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>32</v>
-      </c>
-      <c r="B174">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>34</v>
-      </c>
-      <c r="B176">
-        <v>0.15925925925925899</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>26</v>
-      </c>
-      <c r="B178">
-        <v>0.48095238095238102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>27</v>
-      </c>
-      <c r="B179">
-        <v>0.24076479076478999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>28</v>
-      </c>
-      <c r="B180">
-        <v>0.16649831649831601</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>29</v>
-      </c>
-      <c r="B181">
-        <v>0.438435374149659</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>41</v>
-      </c>
-      <c r="B182">
-        <v>0.266666666666666</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>30</v>
-      </c>
-      <c r="B183">
-        <v>0.441911764705882</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>31</v>
-      </c>
-      <c r="B184">
-        <v>0.16666666666666599</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>34</v>
-      </c>
-      <c r="B187">
-        <v>0.17261904761904701</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>26</v>
-      </c>
-      <c r="B189">
-        <v>0.19385964912280701</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>27</v>
-      </c>
-      <c r="B190">
-        <v>0.29166666666666602</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>28</v>
-      </c>
-      <c r="B191">
-        <v>0.162965939052895</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>29</v>
-      </c>
-      <c r="B192">
-        <v>0.33629148629148597</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>41</v>
-      </c>
-      <c r="B193">
-        <v>0.192892156862745</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>30</v>
-      </c>
-      <c r="B194">
-        <v>0.18712121212121199</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>31</v>
-      </c>
-      <c r="B195">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196">
-        <v>0.12937062937062899</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>34</v>
-      </c>
-      <c r="B198">
-        <v>7.9365079365079305E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>26</v>
-      </c>
-      <c r="B200">
-        <v>0.28888888888888797</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>27</v>
-      </c>
-      <c r="B201">
-        <v>0.17301587301587301</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>28</v>
-      </c>
-      <c r="B202">
-        <v>0.18978232618583499</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>29</v>
-      </c>
-      <c r="B203">
-        <v>0.49299719887955101</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>41</v>
-      </c>
-      <c r="B204">
-        <v>0.44389610389610301</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>30</v>
-      </c>
-      <c r="B205">
-        <v>0.46071428571428502</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>31</v>
-      </c>
-      <c r="B206">
-        <v>0.655555555555555</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207">
-        <v>0.30555555555555503</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>34</v>
-      </c>
-      <c r="B209">
-        <v>0.39141414141414099</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>26</v>
-      </c>
-      <c r="B211">
-        <v>0.31481481481481399</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>27</v>
-      </c>
-      <c r="B212">
-        <v>0.50595238095238004</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>28</v>
-      </c>
-      <c r="B213">
-        <v>0.22652998023889401</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>29</v>
-      </c>
-      <c r="B214">
-        <v>0.401257472686044</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>41</v>
-      </c>
-      <c r="B215">
-        <v>0.102808441558441</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>30</v>
-      </c>
-      <c r="B216">
-        <v>0.107764255127338</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>31</v>
-      </c>
-      <c r="B217">
-        <v>0.11011904761904701</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>32</v>
-      </c>
-      <c r="B218">
-        <v>9.7916666666666596E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>34</v>
-      </c>
-      <c r="B220">
-        <v>8.4722222222222199E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>26</v>
-      </c>
-      <c r="B222">
-        <v>0.23902600667306501</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>27</v>
-      </c>
-      <c r="B223">
-        <v>0.54943181818181797</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>28</v>
-      </c>
-      <c r="B224">
-        <v>0.28575388427362097</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>29</v>
-      </c>
-      <c r="B225">
-        <v>0.53071690214547296</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>41</v>
-      </c>
-      <c r="B226">
-        <v>0.655555555555555</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>30</v>
-      </c>
-      <c r="B227">
-        <v>0.32986111111111099</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>31</v>
-      </c>
-      <c r="B228">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>32</v>
-      </c>
-      <c r="B229">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>33</v>
-      </c>
-      <c r="B230">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>34</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>26</v>
-      </c>
-      <c r="B233">
-        <v>0.24164756811815599</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>27</v>
-      </c>
-      <c r="B234">
-        <v>0.653373015873015</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>28</v>
-      </c>
-      <c r="B235">
-        <v>0.72916666666666596</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>29</v>
-      </c>
-      <c r="B236">
-        <v>0.27369614512471602</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>41</v>
-      </c>
-      <c r="B237">
-        <v>0.40714285714285697</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>30</v>
-      </c>
-      <c r="B238">
-        <v>0.48958333333333298</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>31</v>
-      </c>
-      <c r="B239">
-        <v>0.53333333333333299</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>32</v>
-      </c>
-      <c r="B240">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>33</v>
-      </c>
-      <c r="B241">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>34</v>
-      </c>
-      <c r="B242">
-        <v>0.21666666666666601</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>26</v>
-      </c>
-      <c r="B244">
-        <v>0.165249669289006</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>27</v>
-      </c>
-      <c r="B245">
-        <v>0.32634154040404001</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>28</v>
-      </c>
-      <c r="B246">
-        <v>0.49583333333333302</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>29</v>
-      </c>
-      <c r="B247">
-        <v>0.18292620078334301</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>41</v>
-      </c>
-      <c r="B248">
-        <v>0.18380952380952301</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>30</v>
-      </c>
-      <c r="B249">
-        <v>0.109027777777777</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>31</v>
-      </c>
-      <c r="B250">
-        <v>0.52777777777777701</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>32</v>
-      </c>
-      <c r="B251">
-        <v>0.566239316239316</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>33</v>
-      </c>
-      <c r="B252">
-        <v>0.59166666666666601</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>34</v>
-      </c>
-      <c r="B253">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>26</v>
-      </c>
-      <c r="B255">
-        <v>0.80193744164332403</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>27</v>
-      </c>
-      <c r="B256">
-        <v>0.37767857142857097</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>28</v>
-      </c>
-      <c r="B257">
-        <v>0.51267361111111098</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>29</v>
-      </c>
-      <c r="B258">
-        <v>0.41921768707482898</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>41</v>
-      </c>
-      <c r="B259">
-        <v>0.264038706391647</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>30</v>
-      </c>
-      <c r="B260">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>31</v>
-      </c>
-      <c r="B261">
-        <v>0.49074074074073998</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>32</v>
-      </c>
-      <c r="B262">
-        <v>0.36696428571428502</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>33</v>
-      </c>
-      <c r="B263">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>34</v>
-      </c>
-      <c r="B264">
-        <v>0.154458041958041</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>26</v>
-      </c>
-      <c r="B266">
-        <v>0.30853655187565199</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>27</v>
-      </c>
-      <c r="B267">
-        <v>0.17267148056621701</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>28</v>
-      </c>
-      <c r="B268">
-        <v>0.17850531311009199</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>29</v>
-      </c>
-      <c r="B269">
-        <v>0.35865457294028702</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>41</v>
-      </c>
-      <c r="B270">
-        <v>9.9172113289760305E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>30</v>
-      </c>
-      <c r="B271">
-        <v>7.0766488413547199E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>31</v>
-      </c>
-      <c r="B272">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>32</v>
-      </c>
-      <c r="B273">
-        <v>0.42524509803921501</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>33</v>
-      </c>
-      <c r="B274">
-        <v>0.18124999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>34</v>
-      </c>
-      <c r="B275">
-        <v>0.24583333333333299</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>26</v>
-      </c>
-      <c r="B277">
-        <v>0.28251633986928099</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>27</v>
-      </c>
-      <c r="B278">
-        <v>0.30320035866910799</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>28</v>
-      </c>
-      <c r="B279">
-        <v>0.216563899063899</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>29</v>
-      </c>
-      <c r="B280">
-        <v>0.55952380952380898</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>41</v>
-      </c>
-      <c r="B281">
-        <v>5.5833333333333297E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>30</v>
-      </c>
-      <c r="B282">
-        <v>0.13518170426065099</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>31</v>
-      </c>
-      <c r="B283">
-        <v>0.71666666666666601</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>32</v>
-      </c>
-      <c r="B284">
-        <v>0.70833333333333304</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>26</v>
-      </c>
-      <c r="B288">
-        <v>0.479337052546771</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>27</v>
-      </c>
-      <c r="B289">
-        <v>0.26458355778208698</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>28</v>
-      </c>
-      <c r="B290">
-        <v>0.11580895615822</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>29</v>
-      </c>
-      <c r="B291">
-        <v>0.55868838763575601</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>41</v>
-      </c>
-      <c r="B292">
-        <v>0.14190476190476101</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>30</v>
-      </c>
-      <c r="B293">
-        <v>0.230232411266894</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>31</v>
-      </c>
-      <c r="B294">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>32</v>
-      </c>
-      <c r="B295">
-        <v>0.12380952380952299</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>26</v>
-      </c>
-      <c r="B299">
-        <v>0.31006035588078901</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>27</v>
-      </c>
-      <c r="B300">
-        <v>0.30351562352336298</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>28</v>
-      </c>
-      <c r="B301">
-        <v>0.125454406704406</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>29</v>
-      </c>
-      <c r="B302">
-        <v>0.30793650793650801</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>41</v>
-      </c>
-      <c r="B303">
-        <v>0.34199134199134101</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>30</v>
-      </c>
-      <c r="B304">
-        <v>0.19166666666666601</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>31</v>
-      </c>
-      <c r="B305">
-        <v>0.39365079365079297</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>32</v>
-      </c>
-      <c r="B306">
-        <v>0.73333333333333295</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>26</v>
-      </c>
-      <c r="B310">
-        <v>0.367413632119514</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>27</v>
-      </c>
-      <c r="B311">
-        <v>0.71614583333333304</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>28</v>
-      </c>
-      <c r="B312">
-        <v>0.31467259811662002</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>29</v>
-      </c>
-      <c r="B313">
-        <v>0.26938775510203999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>41</v>
-      </c>
-      <c r="B314">
-        <v>0.36557692307692302</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>30</v>
-      </c>
-      <c r="B315">
-        <v>0.11114253393665099</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>31</v>
-      </c>
-      <c r="B316">
-        <v>0.33928571428571402</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>32</v>
-      </c>
-      <c r="B317">
-        <v>0.192550505050505</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>26</v>
-      </c>
-      <c r="B321">
-        <v>0.17931171577365301</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>27</v>
-      </c>
-      <c r="B322">
-        <v>0.17304257328928299</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>28</v>
-      </c>
-      <c r="B323">
-        <v>0.122049269154048</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>29</v>
-      </c>
-      <c r="B324">
-        <v>0.63809523809523805</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>41</v>
-      </c>
-      <c r="B325">
-        <v>0.12866946778711399</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>30</v>
-      </c>
-      <c r="B326">
-        <v>6.4099821746880503E-2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>31</v>
-      </c>
-      <c r="B327">
-        <v>0.55833333333333302</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>32</v>
-      </c>
-      <c r="B328">
-        <v>0.12006512006512</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>22</v>
-      </c>
+      <c r="A156" s="5"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="5"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="5"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="5"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="5"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="5"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="5"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="5"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
